--- a/output/inference_results/test_sheets/batch_002/test_sheet (19).xlsx
+++ b/output/inference_results/test_sheets/batch_002/test_sheet (19).xlsx
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>乙肝表面抗原定量（化学发光）</t>
+          <t>乙肝表面抗原</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>乙肝表面抗体定量（化学发光）</t>
+          <t>乙型肝炎表面抗体定量</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -475,7 +475,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>乙肝e抗原定量（化学发光）</t>
+          <t>乙型肝炎e抗原定量</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -492,12 +492,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>乙肝e抗体定量（化学发光）</t>
+          <t>乙型肝炎e抗体定量</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>乙肝核心抗体定量（化学发光）</t>
+          <t>乙型肝炎核心抗体定量</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -526,7 +526,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>丙肝抗体（ELISA法）</t>
+          <t>丙肝抗体</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>丙肝核心抗原（ELISA法）</t>
+          <t>丙肝核心抗原</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
